--- a/runs/run516/NotionalETEOutput516.xlsx
+++ b/runs/run516/NotionalETEOutput516.xlsx
@@ -49,13 +49,13 @@
     <t>tUp</t>
   </si>
   <si>
-    <t>Missile_HIGHWIND0_State_Update</t>
+    <t>Missile_BRAVER2_State_Update</t>
   </si>
   <si>
-    <t>MISSILE_HIGHWIND0_421.MISSILE_HIGHWIND0_421</t>
+    <t>MISSILE_BRAVER2_426.MISSILE_BRAVER2_426</t>
   </si>
   <si>
-    <t>MISSILE_HIGHWIND0</t>
+    <t>MISSILE_BRAVER2</t>
   </si>
 </sst>
 </file>
@@ -480,10 +480,10 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>-1458.146605103417</v>
+        <v>-1465.627095576979</v>
       </c>
       <c r="J2">
-        <v>1928.11337066482</v>
+        <v>1907.858620983944</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -515,13 +515,13 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>-1480.178089266281</v>
+        <v>-1528.243657067178</v>
       </c>
       <c r="J3">
-        <v>1868.269619650443</v>
+        <v>1994.787379542672</v>
       </c>
       <c r="K3">
-        <v>291.1247345669238</v>
+        <v>310.1540888534336</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -550,13 +550,13 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>-1399.219668224856</v>
+        <v>-1392.541916739476</v>
       </c>
       <c r="J4">
-        <v>1948.565912376112</v>
+        <v>1903.606936224337</v>
       </c>
       <c r="K4">
-        <v>573.5546798442497</v>
+        <v>592.9828321959541</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -585,13 +585,13 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>-1452.654338211547</v>
+        <v>-1455.289796923269</v>
       </c>
       <c r="J5">
-        <v>1931.945570713427</v>
+        <v>1787.054936892034</v>
       </c>
       <c r="K5">
-        <v>838.5782926871191</v>
+        <v>902.965579446829</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -620,13 +620,13 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>-1397.491596896455</v>
+        <v>-1388.539248681928</v>
       </c>
       <c r="J6">
-        <v>1884.431334142712</v>
+        <v>1883.665643891916</v>
       </c>
       <c r="K6">
-        <v>1113.66584750435</v>
+        <v>1112.943452089158</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -655,13 +655,13 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>-1324.415599453526</v>
+        <v>-1379.904799809891</v>
       </c>
       <c r="J7">
-        <v>1688.153432170635</v>
+        <v>1783.255067263899</v>
       </c>
       <c r="K7">
-        <v>1369.514168040242</v>
+        <v>1365.999942817968</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -690,13 +690,13 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>-1265.650836606653</v>
+        <v>-1318.36974003121</v>
       </c>
       <c r="J8">
-        <v>1664.231193074924</v>
+        <v>1647.542046809383</v>
       </c>
       <c r="K8">
-        <v>1674.845400851743</v>
+        <v>1599.039345506462</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -719,19 +719,19 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>-100.7357101906886</v>
+        <v>-99.50154571962322</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>-1262.39676276662</v>
+        <v>-1328.569653137539</v>
       </c>
       <c r="J9">
-        <v>1641.271633058053</v>
+        <v>1636.67432566498</v>
       </c>
       <c r="K9">
-        <v>1741.367252047971</v>
+        <v>1762.794844454666</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -751,22 +751,22 @@
         <v>160.142</v>
       </c>
       <c r="F10">
-        <v>227.3941215634548</v>
+        <v>225.2659797309972</v>
       </c>
       <c r="G10">
-        <v>-85.71472351192206</v>
+        <v>-79.33637698036225</v>
       </c>
       <c r="H10">
-        <v>854.0407958073397</v>
+        <v>863.5347796610176</v>
       </c>
       <c r="I10">
-        <v>-1233.30758094934</v>
+        <v>-1263.711849879859</v>
       </c>
       <c r="J10">
-        <v>1601.788486702051</v>
+        <v>1666.793744562718</v>
       </c>
       <c r="K10">
-        <v>1907.857501858245</v>
+        <v>2056.864131452182</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -786,22 +786,22 @@
         <v>161.142</v>
       </c>
       <c r="F11">
-        <v>173.2709934705131</v>
+        <v>163.0864435510377</v>
       </c>
       <c r="G11">
-        <v>-69.0882142463816</v>
+        <v>-66.2058796704778</v>
       </c>
       <c r="H11">
-        <v>1109.274650279963</v>
+        <v>1036.023539985027</v>
       </c>
       <c r="I11">
-        <v>-1263.480802262402</v>
+        <v>-1236.080334996656</v>
       </c>
       <c r="J11">
-        <v>1600.283764863298</v>
+        <v>1619.691892155033</v>
       </c>
       <c r="K11">
-        <v>2286.852024790231</v>
+        <v>2174.559185855159</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -821,22 +821,22 @@
         <v>162.142</v>
       </c>
       <c r="F12">
-        <v>142.1131959635472</v>
+        <v>146.4456505264948</v>
       </c>
       <c r="G12">
-        <v>-50.90823480892795</v>
+        <v>-48.8137686843322</v>
       </c>
       <c r="H12">
-        <v>1218.551405859588</v>
+        <v>1217.841918656719</v>
       </c>
       <c r="I12">
-        <v>-1144.504059602008</v>
+        <v>-1142.042698749669</v>
       </c>
       <c r="J12">
-        <v>1467.827700032279</v>
+        <v>1446.947489614427</v>
       </c>
       <c r="K12">
-        <v>2436.436409072656</v>
+        <v>2301.115657709438</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -856,22 +856,22 @@
         <v>163.142</v>
       </c>
       <c r="F13">
-        <v>121.7146181398667</v>
+        <v>117.3290959864079</v>
       </c>
       <c r="G13">
-        <v>-34.24832693150997</v>
+        <v>-33.20205415653358</v>
       </c>
       <c r="H13">
-        <v>1255.565483064626</v>
+        <v>1205.098679930895</v>
       </c>
       <c r="I13">
-        <v>-1129.153163928978</v>
+        <v>-1162.450569949769</v>
       </c>
       <c r="J13">
-        <v>1421.981771468496</v>
+        <v>1407.653020624741</v>
       </c>
       <c r="K13">
-        <v>2622.57821932918</v>
+        <v>2415.923517907173</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -891,22 +891,22 @@
         <v>164.142</v>
       </c>
       <c r="F14">
-        <v>107.8298399000774</v>
+        <v>111.6161842717154</v>
       </c>
       <c r="G14">
-        <v>-18.28620072007877</v>
+        <v>-17.27357871226186</v>
       </c>
       <c r="H14">
-        <v>1372.504500661072</v>
+        <v>1329.269540800874</v>
       </c>
       <c r="I14">
-        <v>-1089.003962627175</v>
+        <v>-1106.699314907238</v>
       </c>
       <c r="J14">
-        <v>1402.188675248996</v>
+        <v>1466.070824774523</v>
       </c>
       <c r="K14">
-        <v>2576.71642190041</v>
+        <v>2651.273832636562</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -926,22 +926,22 @@
         <v>165.142</v>
       </c>
       <c r="F15">
-        <v>102.8426462928437</v>
+        <v>101.4564593645994</v>
       </c>
       <c r="G15">
-        <v>-0.9502007381529727</v>
+        <v>-0.9678976006275659</v>
       </c>
       <c r="H15">
-        <v>1387.015677515007</v>
+        <v>1419.863515386067</v>
       </c>
       <c r="I15">
-        <v>-1040.75319076614</v>
+        <v>-1034.686332859759</v>
       </c>
       <c r="J15">
-        <v>1353.418978340727</v>
+        <v>1338.16992705771</v>
       </c>
       <c r="K15">
-        <v>2643.732567795758</v>
+        <v>2831.48558631027</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -961,22 +961,22 @@
         <v>166.142</v>
       </c>
       <c r="F16">
-        <v>95.97541670566316</v>
+        <v>94.64031706642686</v>
       </c>
       <c r="G16">
-        <v>15.22811024641839</v>
+        <v>15.42059448177246</v>
       </c>
       <c r="H16">
-        <v>1369.799284230616</v>
+        <v>1454.296489586122</v>
       </c>
       <c r="I16">
-        <v>-968.7123842566234</v>
+        <v>-1007.586309458929</v>
       </c>
       <c r="J16">
-        <v>1356.356334731708</v>
+        <v>1350.478920604427</v>
       </c>
       <c r="K16">
-        <v>2854.850432346956</v>
+        <v>2944.745997505445</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -996,22 +996,22 @@
         <v>167.142</v>
       </c>
       <c r="F17">
-        <v>84.48844654672246</v>
+        <v>84.83425140753197</v>
       </c>
       <c r="G17">
-        <v>30.50710892037042</v>
+        <v>32.54533952015477</v>
       </c>
       <c r="H17">
-        <v>1517.200801709101</v>
+        <v>1423.376573040692</v>
       </c>
       <c r="I17">
-        <v>-948.9940640345035</v>
+        <v>-946.7962021483187</v>
       </c>
       <c r="J17">
-        <v>1244.65786205903</v>
+        <v>1303.495225448752</v>
       </c>
       <c r="K17">
-        <v>2823.917335351749</v>
+        <v>2841.950767360634</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1031,22 +1031,22 @@
         <v>168.142</v>
       </c>
       <c r="F18">
-        <v>85.07290042974134</v>
+        <v>85.19651288116282</v>
       </c>
       <c r="G18">
-        <v>46.3160121082825</v>
+        <v>47.31136136383711</v>
       </c>
       <c r="H18">
-        <v>1437.242802724852</v>
+        <v>1446.407343302174</v>
       </c>
       <c r="I18">
-        <v>-944.0033843440467</v>
+        <v>-967.2018124218781</v>
       </c>
       <c r="J18">
-        <v>1265.488117004479</v>
+        <v>1185.153647089228</v>
       </c>
       <c r="K18">
-        <v>3117.59426601904</v>
+        <v>3118.494002676845</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1066,22 +1066,22 @@
         <v>169.142</v>
       </c>
       <c r="F19">
-        <v>79.08696436237329</v>
+        <v>74.10703445345364</v>
       </c>
       <c r="G19">
-        <v>65.50166014744286</v>
+        <v>65.20910772392882</v>
       </c>
       <c r="H19">
-        <v>1478.358789905669</v>
+        <v>1515.505127822811</v>
       </c>
       <c r="I19">
-        <v>-853.749520753296</v>
+        <v>-897.2832779109528</v>
       </c>
       <c r="J19">
-        <v>1198.275816528993</v>
+        <v>1189.863784458141</v>
       </c>
       <c r="K19">
-        <v>2984.898137239892</v>
+        <v>2969.734050235862</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1101,22 +1101,22 @@
         <v>170.142</v>
       </c>
       <c r="F20">
-        <v>70.78653273502002</v>
+        <v>71.38492511548107</v>
       </c>
       <c r="G20">
-        <v>83.02095473854213</v>
+        <v>82.27095356086531</v>
       </c>
       <c r="H20">
-        <v>1572.61005379269</v>
+        <v>1632.959775722051</v>
       </c>
       <c r="I20">
-        <v>-820.9865971785612</v>
+        <v>-831.2465594496152</v>
       </c>
       <c r="J20">
-        <v>1176.795308529896</v>
+        <v>1109.638458649765</v>
       </c>
       <c r="K20">
-        <v>3078.019997423611</v>
+        <v>3246.379236840631</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1136,22 +1136,22 @@
         <v>171.142</v>
       </c>
       <c r="F21">
-        <v>68.67481493078303</v>
+        <v>70.32477577421665</v>
       </c>
       <c r="G21">
-        <v>99.40653594887583</v>
+        <v>97.3188328786167</v>
       </c>
       <c r="H21">
-        <v>1619.146468610119</v>
+        <v>1519.916522443979</v>
       </c>
       <c r="I21">
-        <v>-813.1900668391388</v>
+        <v>-820.2175779190623</v>
       </c>
       <c r="J21">
-        <v>1071.970824892377</v>
+        <v>1076.845818433914</v>
       </c>
       <c r="K21">
-        <v>3338.459308429736</v>
+        <v>3312.086310531445</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1171,22 +1171,22 @@
         <v>172.142</v>
       </c>
       <c r="F22">
-        <v>68.9277134066044</v>
+        <v>70.20897812304057</v>
       </c>
       <c r="G22">
-        <v>119.1995836480512</v>
+        <v>117.8041841402015</v>
       </c>
       <c r="H22">
-        <v>1585.760181636794</v>
+        <v>1627.478445988076</v>
       </c>
       <c r="I22">
-        <v>-709.1973678422283</v>
+        <v>-711.2293705005916</v>
       </c>
       <c r="J22">
-        <v>984.0778770658924</v>
+        <v>1050.519567695749</v>
       </c>
       <c r="K22">
-        <v>3137.109485658732</v>
+        <v>3098.57403284922</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1206,22 +1206,22 @@
         <v>173.142</v>
       </c>
       <c r="F23">
-        <v>68.00709253348124</v>
+        <v>66.66349958310074</v>
       </c>
       <c r="G23">
-        <v>137.4093222712994</v>
+        <v>137.0385995344704</v>
       </c>
       <c r="H23">
-        <v>1669.549936659645</v>
+        <v>1558.547638577096</v>
       </c>
       <c r="I23">
-        <v>-707.8680700532478</v>
+        <v>-675.759108263347</v>
       </c>
       <c r="J23">
-        <v>979.351280750667</v>
+        <v>935.3396582298822</v>
       </c>
       <c r="K23">
-        <v>3291.731922341846</v>
+        <v>3149.874810076547</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1241,22 +1241,22 @@
         <v>174.142</v>
       </c>
       <c r="F24">
-        <v>64.47927813313422</v>
+        <v>63.25894368848044</v>
       </c>
       <c r="G24">
-        <v>154.2113635935601</v>
+        <v>142.8227570765839</v>
       </c>
       <c r="H24">
-        <v>1648.574875204662</v>
+        <v>1636.653765197448</v>
       </c>
       <c r="I24">
-        <v>-625.4989795825014</v>
+        <v>-640.3671095225554</v>
       </c>
       <c r="J24">
-        <v>966.4328524818725</v>
+        <v>949.2464535141372</v>
       </c>
       <c r="K24">
-        <v>3240.76122913779</v>
+        <v>3073.150460973864</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1276,22 +1276,22 @@
         <v>175.142</v>
       </c>
       <c r="F25">
-        <v>61.21816764701914</v>
+        <v>64.54181273811156</v>
       </c>
       <c r="G25">
-        <v>167.1355214908141</v>
+        <v>156.3215158747377</v>
       </c>
       <c r="H25">
-        <v>1618.621917759628</v>
+        <v>1601.584608811491</v>
       </c>
       <c r="I25">
-        <v>-568.9537004232985</v>
+        <v>-569.1768729637887</v>
       </c>
       <c r="J25">
-        <v>886.624650338219</v>
+        <v>901.260384516875</v>
       </c>
       <c r="K25">
-        <v>3286.175762035368</v>
+        <v>3068.062566473987</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1311,22 +1311,22 @@
         <v>176.142</v>
       </c>
       <c r="F26">
-        <v>56.97966725378638</v>
+        <v>60.58437938299506</v>
       </c>
       <c r="G26">
-        <v>186.1614291524891</v>
+        <v>181.6528840322931</v>
       </c>
       <c r="H26">
-        <v>1751.323087148761</v>
+        <v>1723.862514473911</v>
       </c>
       <c r="I26">
-        <v>-561.917008753043</v>
+        <v>-572.9534105165779</v>
       </c>
       <c r="J26">
-        <v>858.3066004076363</v>
+        <v>817.2942199514473</v>
       </c>
       <c r="K26">
-        <v>3263.093902173767</v>
+        <v>3165.205634367526</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1346,22 +1346,22 @@
         <v>177.142</v>
       </c>
       <c r="F27">
-        <v>57.4239714270541</v>
+        <v>58.653237838162</v>
       </c>
       <c r="G27">
-        <v>191.5317955948271</v>
+        <v>192.3422705748904</v>
       </c>
       <c r="H27">
-        <v>1663.242364506931</v>
+        <v>1752.332989003185</v>
       </c>
       <c r="I27">
-        <v>-495.0969394406252</v>
+        <v>-468.8395466908191</v>
       </c>
       <c r="J27">
-        <v>796.70718974642</v>
+        <v>766.1472512060287</v>
       </c>
       <c r="K27">
-        <v>3044.576578293543</v>
+        <v>3028.36156716873</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1381,22 +1381,22 @@
         <v>178.142</v>
       </c>
       <c r="F28">
-        <v>55.71764175001135</v>
+        <v>54.28528624631972</v>
       </c>
       <c r="G28">
-        <v>214.5546072896627</v>
+        <v>208.8287021832112</v>
       </c>
       <c r="H28">
-        <v>1721.356884493174</v>
+        <v>1754.520333397599</v>
       </c>
       <c r="I28">
-        <v>-450.1462775896198</v>
+        <v>-440.7929853626072</v>
       </c>
       <c r="J28">
-        <v>701.2301813662137</v>
+        <v>770.9715558587501</v>
       </c>
       <c r="K28">
-        <v>2863.785240228099</v>
+        <v>2964.326384885334</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1416,22 +1416,22 @@
         <v>179.142</v>
       </c>
       <c r="F29">
-        <v>56.46910105289209</v>
+        <v>52.29392133957312</v>
       </c>
       <c r="G29">
-        <v>241.7299151325119</v>
+        <v>238.8483202722359</v>
       </c>
       <c r="H29">
-        <v>1667.15704312741</v>
+        <v>1799.037763129556</v>
       </c>
       <c r="I29">
-        <v>-373.4101554617179</v>
+        <v>-381.2141706086996</v>
       </c>
       <c r="J29">
-        <v>666.5106635362971</v>
+        <v>714.0302822206198</v>
       </c>
       <c r="K29">
-        <v>3029.024708228211</v>
+        <v>2834.402019165734</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1451,22 +1451,22 @@
         <v>180.142</v>
       </c>
       <c r="F30">
-        <v>51.08149403776402</v>
+        <v>56.31922591470143</v>
       </c>
       <c r="G30">
-        <v>243.7745654934785</v>
+        <v>250.385910348978</v>
       </c>
       <c r="H30">
-        <v>1841.378010327373</v>
+        <v>1840.796724702689</v>
       </c>
       <c r="I30">
-        <v>-328.6007027046929</v>
+        <v>-331.5113481306715</v>
       </c>
       <c r="J30">
-        <v>628.049555844367</v>
+        <v>655.638072774599</v>
       </c>
       <c r="K30">
-        <v>2775.865080927249</v>
+        <v>2684.673931182951</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1486,22 +1486,22 @@
         <v>181.142</v>
       </c>
       <c r="F31">
-        <v>51.54134999450347</v>
+        <v>51.10221181220169</v>
       </c>
       <c r="G31">
-        <v>271.7460818903205</v>
+        <v>273.1360607927367</v>
       </c>
       <c r="H31">
-        <v>1793.90632804222</v>
+        <v>1847.59407048142</v>
       </c>
       <c r="I31">
-        <v>-273.0720751206164</v>
+        <v>-276.6238064859963</v>
       </c>
       <c r="J31">
-        <v>599.23568348623</v>
+        <v>560.3949086191317</v>
       </c>
       <c r="K31">
-        <v>2563.976036581712</v>
+        <v>2532.319486398907</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1521,22 +1521,22 @@
         <v>182.142</v>
       </c>
       <c r="F32">
-        <v>53.03292768439914</v>
+        <v>49.86596120091494</v>
       </c>
       <c r="G32">
-        <v>281.5975542061479</v>
+        <v>273.1456819931107</v>
       </c>
       <c r="H32">
-        <v>1713.762980306698</v>
+        <v>1715.541330551521</v>
       </c>
       <c r="I32">
-        <v>-217.3226246501513</v>
+        <v>-198.0185695532707</v>
       </c>
       <c r="J32">
-        <v>543.4503578144094</v>
+        <v>536.0866339889592</v>
       </c>
       <c r="K32">
-        <v>2556.748707206232</v>
+        <v>2422.909414949294</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1556,22 +1556,22 @@
         <v>183.142</v>
       </c>
       <c r="F33">
-        <v>52.07158531006371</v>
+        <v>50.12376370799181</v>
       </c>
       <c r="G33">
-        <v>286.1737944711879</v>
+        <v>311.0029762710431</v>
       </c>
       <c r="H33">
-        <v>1723.635266854326</v>
+        <v>1752.616096626834</v>
       </c>
       <c r="I33">
-        <v>-148.282289092088</v>
+        <v>-147.0516622420095</v>
       </c>
       <c r="J33">
-        <v>472.8998691531649</v>
+        <v>467.640021168527</v>
       </c>
       <c r="K33">
-        <v>2456.110619113288</v>
+        <v>2481.315121730812</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1591,22 +1591,22 @@
         <v>184.142</v>
       </c>
       <c r="F34">
-        <v>47.63062871525288</v>
+        <v>49.21910461506761</v>
       </c>
       <c r="G34">
-        <v>326.1082309511925</v>
+        <v>309.8255698688156</v>
       </c>
       <c r="H34">
-        <v>1735.193731248208</v>
+        <v>1872.046542841077</v>
       </c>
       <c r="I34">
-        <v>-87.2298489601295</v>
+        <v>-80.81765897402518</v>
       </c>
       <c r="J34">
-        <v>426.9410689307213</v>
+        <v>449.0695393008245</v>
       </c>
       <c r="K34">
-        <v>2159.448132291995</v>
+        <v>2209.61220324745</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1626,22 +1626,22 @@
         <v>185.142</v>
       </c>
       <c r="F35">
-        <v>46.91559695338034</v>
+        <v>47.11004218420451</v>
       </c>
       <c r="G35">
-        <v>334.060830667359</v>
+        <v>321.6713866124767</v>
       </c>
       <c r="H35">
-        <v>1862.908113925916</v>
+        <v>1745.743548688787</v>
       </c>
       <c r="I35">
-        <v>-19.30972067217667</v>
+        <v>-18.80271051316092</v>
       </c>
       <c r="J35">
-        <v>403.9934263691363</v>
+        <v>380.823286505003</v>
       </c>
       <c r="K35">
-        <v>2117.649635749924</v>
+        <v>2114.276707117749</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1661,22 +1661,22 @@
         <v>186.142</v>
       </c>
       <c r="F36">
-        <v>47.86949496745769</v>
+        <v>48.87917529696394</v>
       </c>
       <c r="G36">
-        <v>345.0369197883733</v>
+        <v>336.264433288228</v>
       </c>
       <c r="H36">
-        <v>1808.799630071044</v>
+        <v>1795.915458652504</v>
       </c>
       <c r="I36">
-        <v>47.21725713588575</v>
+        <v>48.94778713472929</v>
       </c>
       <c r="J36">
-        <v>347.8744390868752</v>
+        <v>346.1823062775058</v>
       </c>
       <c r="K36">
-        <v>1825.265379805508</v>
+        <v>1826.180399268383</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1696,22 +1696,22 @@
         <v>187.142</v>
       </c>
       <c r="F37">
-        <v>44.35454686051893</v>
+        <v>45.66161355890039</v>
       </c>
       <c r="G37">
-        <v>377.4774985653781</v>
+        <v>373.1332009769308</v>
       </c>
       <c r="H37">
-        <v>1801.025891863163</v>
+        <v>1897.13403441025</v>
       </c>
       <c r="I37">
-        <v>110.8582091306128</v>
+        <v>110.7973842715977</v>
       </c>
       <c r="J37">
-        <v>310.5554862034244</v>
+        <v>309.3182000083844</v>
       </c>
       <c r="K37">
-        <v>1689.578076583346</v>
+        <v>1663.185138413606</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1731,22 +1731,22 @@
         <v>188.142</v>
       </c>
       <c r="F38">
-        <v>47.28674437468526</v>
+        <v>43.55746924008571</v>
       </c>
       <c r="G38">
-        <v>394.3040192613695</v>
+        <v>387.473891562969</v>
       </c>
       <c r="H38">
-        <v>1919.66443269643</v>
+        <v>1907.619600877342</v>
       </c>
       <c r="I38">
-        <v>183.113040799614</v>
+        <v>192.3492117629708</v>
       </c>
       <c r="J38">
-        <v>258.85923202375</v>
+        <v>244.4130416750301</v>
       </c>
       <c r="K38">
-        <v>1375.095023499113</v>
+        <v>1337.575527434417</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1766,22 +1766,22 @@
         <v>189.142</v>
       </c>
       <c r="F39">
-        <v>45.99875464897254</v>
+        <v>43.05555921414052</v>
       </c>
       <c r="G39">
-        <v>383.2822811317369</v>
+        <v>403.8930142339731</v>
       </c>
       <c r="H39">
-        <v>1786.861540082878</v>
+        <v>1794.961591608114</v>
       </c>
       <c r="I39">
-        <v>247.8576943317785</v>
+        <v>245.5154854956163</v>
       </c>
       <c r="J39">
-        <v>205.25349205072</v>
+        <v>207.1779669917105</v>
       </c>
       <c r="K39">
-        <v>1109.313992564976</v>
+        <v>1191.25456173325</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1801,22 +1801,22 @@
         <v>190.142</v>
       </c>
       <c r="F40">
-        <v>42.25956030199802</v>
+        <v>45.88350923354588</v>
       </c>
       <c r="G40">
-        <v>392.9543569578051</v>
+        <v>415.6419507241488</v>
       </c>
       <c r="H40">
-        <v>1924.424400184735</v>
+        <v>1845.370669610804</v>
       </c>
       <c r="I40">
-        <v>341.7045672220212</v>
+        <v>343.6112146744156</v>
       </c>
       <c r="J40">
-        <v>156.422525306945</v>
+        <v>144.2591963800276</v>
       </c>
       <c r="K40">
-        <v>931.911356953691</v>
+        <v>918.9576635070854</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1836,22 +1836,22 @@
         <v>191.142</v>
       </c>
       <c r="F41">
-        <v>43.20864603745459</v>
+        <v>44.25135936919769</v>
       </c>
       <c r="G41">
-        <v>428.9060459639767</v>
+        <v>440.0452296116753</v>
       </c>
       <c r="H41">
-        <v>1831.963758215536</v>
+        <v>1925.937898057876</v>
       </c>
       <c r="I41">
-        <v>412.7972814945757</v>
+        <v>405.3227786267148</v>
       </c>
       <c r="J41">
-        <v>100.9748923610193</v>
+        <v>98.02081161871263</v>
       </c>
       <c r="K41">
-        <v>632.1309800642955</v>
+        <v>635.4808510148944</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1871,22 +1871,22 @@
         <v>192.142</v>
       </c>
       <c r="F42">
-        <v>41.43567820546606</v>
+        <v>42.07895287749083</v>
       </c>
       <c r="G42">
-        <v>445.7066447007954</v>
+        <v>440.1006887731593</v>
       </c>
       <c r="H42">
-        <v>1870.412999885322</v>
+        <v>1822.036969841736</v>
       </c>
       <c r="I42">
-        <v>477.2523185366036</v>
+        <v>482.8224357827482</v>
       </c>
       <c r="J42">
-        <v>55.63805457089292</v>
+        <v>54.46964880667574</v>
       </c>
       <c r="K42">
-        <v>335.4426462577389</v>
+        <v>331.1465972543587</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1906,22 +1906,22 @@
         <v>193.142</v>
       </c>
       <c r="F43">
-        <v>42.74143390006977</v>
+        <v>44.09271629644599</v>
       </c>
       <c r="G43">
-        <v>465.2933192381056</v>
+        <v>472.5967729045447</v>
       </c>
       <c r="H43">
-        <v>1975.559472870038</v>
+        <v>1832.321478410181</v>
       </c>
       <c r="I43">
-        <v>574.4844519165994</v>
+        <v>578.0302813876033</v>
       </c>
       <c r="J43">
-        <v>5.423992484842572</v>
+        <v>5.28457764881218</v>
       </c>
       <c r="K43">
-        <v>32.34192493349003</v>
+        <v>35.20025028739577</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1941,22 +1941,22 @@
         <v>194.142</v>
       </c>
       <c r="F44">
-        <v>41.7227892803947</v>
+        <v>40.83343269005947</v>
       </c>
       <c r="G44">
-        <v>461.7547391758024</v>
+        <v>467.6807384775473</v>
       </c>
       <c r="H44">
-        <v>1881.902245201405</v>
+        <v>1923.96074959937</v>
       </c>
       <c r="I44">
-        <v>607.4660990579016</v>
+        <v>651.2861090430766</v>
       </c>
       <c r="J44">
-        <v>-44.85718727939055</v>
+        <v>-45.42450582167636</v>
       </c>
       <c r="K44">
-        <v>-282.2573026483767</v>
+        <v>-284.3124067016095</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1976,22 +1976,22 @@
         <v>195.142</v>
       </c>
       <c r="F45">
-        <v>40.9585304876357</v>
+        <v>39.90349166262713</v>
       </c>
       <c r="G45">
-        <v>514.8384689710883</v>
+        <v>507.8518537433848</v>
       </c>
       <c r="H45">
-        <v>1984.507366345341</v>
+        <v>1933.408761892515</v>
       </c>
       <c r="I45">
-        <v>733.8415911244954</v>
+        <v>706.2247405988753</v>
       </c>
       <c r="J45">
-        <v>-93.52507398128601</v>
+        <v>-88.69253907110573</v>
       </c>
       <c r="K45">
-        <v>-592.2141869671236</v>
+        <v>-601.6781949842145</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2011,22 +2011,22 @@
         <v>196.142</v>
       </c>
       <c r="F46">
-        <v>40.1439492477909</v>
+        <v>38.64680815498742</v>
       </c>
       <c r="G46">
-        <v>519.8887487425366</v>
+        <v>492.6530537088788</v>
       </c>
       <c r="H46">
-        <v>1913.42243223002</v>
+        <v>1992.812563858156</v>
       </c>
       <c r="I46">
-        <v>772.1361467378413</v>
+        <v>764.4614171578844</v>
       </c>
       <c r="J46">
-        <v>-144.2945948320162</v>
+        <v>-141.5149895788128</v>
       </c>
       <c r="K46">
-        <v>-951.4981908995939</v>
+        <v>-942.6949784270981</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2046,22 +2046,22 @@
         <v>197.142</v>
       </c>
       <c r="F47">
-        <v>41.12594742440906</v>
+        <v>41.51957022983058</v>
       </c>
       <c r="G47">
-        <v>516.2641037291767</v>
+        <v>514.1877435905761</v>
       </c>
       <c r="H47">
-        <v>1841.866160903791</v>
+        <v>2001.786511605966</v>
       </c>
       <c r="I47">
-        <v>861.9133604308798</v>
+        <v>874.7221239902194</v>
       </c>
       <c r="J47">
-        <v>-183.2048330434734</v>
+        <v>-183.7560921481402</v>
       </c>
       <c r="K47">
-        <v>-1331.272843866388</v>
+        <v>-1385.97388300544</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2081,22 +2081,22 @@
         <v>198.142</v>
       </c>
       <c r="F48">
-        <v>37.89565210909588</v>
+        <v>38.15053834300299</v>
       </c>
       <c r="G48">
-        <v>553.5956154705721</v>
+        <v>527.1172606986703</v>
       </c>
       <c r="H48">
-        <v>1858.496347255798</v>
+        <v>1965.469660764347</v>
       </c>
       <c r="I48">
-        <v>984.2886334818921</v>
+        <v>952.8576600072674</v>
       </c>
       <c r="J48">
-        <v>-242.7360317345457</v>
+        <v>-227.2134401731603</v>
       </c>
       <c r="K48">
-        <v>-1717.339151996972</v>
+        <v>-1786.149421977903</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2116,22 +2116,22 @@
         <v>199.142</v>
       </c>
       <c r="F49">
-        <v>37.41512646144351</v>
+        <v>36.96300062522259</v>
       </c>
       <c r="G49">
-        <v>545.6640268436391</v>
+        <v>563.906931692272</v>
       </c>
       <c r="H49">
-        <v>2032.244496448489</v>
+        <v>2016.549556550079</v>
       </c>
       <c r="I49">
-        <v>1051.498342883536</v>
+        <v>1038.96726484269</v>
       </c>
       <c r="J49">
-        <v>-294.393737955656</v>
+        <v>-277.906028378688</v>
       </c>
       <c r="K49">
-        <v>-2122.209008132626</v>
+        <v>-2083.728446335322</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2151,22 +2151,22 @@
         <v>200.142</v>
       </c>
       <c r="F50">
-        <v>37.06176852449323</v>
+        <v>36.76247651945655</v>
       </c>
       <c r="G50">
-        <v>564.193129755369</v>
+        <v>586.9273820281575</v>
       </c>
       <c r="H50">
-        <v>1984.421324140671</v>
+        <v>2024.177127941043</v>
       </c>
       <c r="I50">
-        <v>1152.705938370987</v>
+        <v>1191.123681087785</v>
       </c>
       <c r="J50">
-        <v>-336.7916173599817</v>
+        <v>-337.0483285522177</v>
       </c>
       <c r="K50">
-        <v>-2518.782028505484</v>
+        <v>-2387.756243366195</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2186,22 +2186,22 @@
         <v>201.142</v>
       </c>
       <c r="F51">
-        <v>37.92037599331271</v>
+        <v>38.60241095872791</v>
       </c>
       <c r="G51">
-        <v>569.7755267813764</v>
+        <v>592.9843931275393</v>
       </c>
       <c r="H51">
-        <v>1887.910631721012</v>
+        <v>1937.990617250543</v>
       </c>
       <c r="I51">
-        <v>1201.617350610857</v>
+        <v>1278.356049989356</v>
       </c>
       <c r="J51">
-        <v>-371.6730443953751</v>
+        <v>-375.4470715783494</v>
       </c>
       <c r="K51">
-        <v>-2802.931845686524</v>
+        <v>-2805.550939400765</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2221,22 +2221,22 @@
         <v>202.142</v>
       </c>
       <c r="F52">
-        <v>37.36457660605053</v>
+        <v>38.54628576354018</v>
       </c>
       <c r="G52">
-        <v>624.0605714014514</v>
+        <v>618.37785783306</v>
       </c>
       <c r="H52">
-        <v>1921.475240446636</v>
+        <v>2041.77385517017</v>
       </c>
       <c r="I52">
-        <v>1357.478841797929</v>
+        <v>1384.345651945525</v>
       </c>
       <c r="J52">
-        <v>-428.9647931562</v>
+        <v>-430.7542940295728</v>
       </c>
       <c r="K52">
-        <v>-3322.224844320904</v>
+        <v>-3306.682931513644</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2256,22 +2256,22 @@
         <v>203.142</v>
       </c>
       <c r="F53">
-        <v>38.75692915796819</v>
+        <v>36.01637885602138</v>
       </c>
       <c r="G53">
-        <v>629.4443255485924</v>
+        <v>632.9585401995768</v>
       </c>
       <c r="H53">
-        <v>1945.109108722251</v>
+        <v>2028.250623153609</v>
       </c>
       <c r="I53">
-        <v>1509.380932291204</v>
+        <v>1492.440534190177</v>
       </c>
       <c r="J53">
-        <v>-497.7456178407312</v>
+        <v>-487.0016603427138</v>
       </c>
       <c r="K53">
-        <v>-3996.884815293078</v>
+        <v>-3662.554932156663</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2291,22 +2291,22 @@
         <v>204.142</v>
       </c>
       <c r="F54">
-        <v>36.58483491930475</v>
+        <v>36.94781760830326</v>
       </c>
       <c r="G54">
-        <v>622.7548264698378</v>
+        <v>662.270962324523</v>
       </c>
       <c r="H54">
-        <v>1913.319748903953</v>
+        <v>1886.287083155145</v>
       </c>
       <c r="I54">
-        <v>1547.947895891011</v>
+        <v>1506.270560828968</v>
       </c>
       <c r="J54">
-        <v>-537.8425234375861</v>
+        <v>-548.5641521155259</v>
       </c>
       <c r="K54">
-        <v>-4123.418184696116</v>
+        <v>-4332.224180491831</v>
       </c>
     </row>
   </sheetData>
